--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\cpdc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B36A1C-DC6F-41DA-87F0-16BBF8D1BD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECD18CE-6FEE-4B13-9A1D-4D59C917307A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4DE382B-71FB-44F2-9AD1-C07EE2A9A4AE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="3">
   <si>
     <t>NPM</t>
   </si>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE227243-1865-4B36-B380-CAB7B2BB7D9C}">
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,24 +423,24 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1717011007</v>
+      <c r="A2">
+        <v>2017051033</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1717011014</v>
+      <c r="A3">
+        <v>2017051062</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1717011023</v>
+      <c r="A4">
+        <v>2057051015</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1717011034</v>
+        <v>1717011007</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1717011055</v>
+        <v>1717011014</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1717011070</v>
+        <v>1717011023</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1717011072</v>
+        <v>1717011034</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1717011076</v>
+        <v>1717011055</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1717011077</v>
+        <v>1717011070</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1717011085</v>
+        <v>1717011072</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1717011090</v>
+        <v>1717011076</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1757011013</v>
+        <v>1717011077</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1757011014</v>
+        <v>1717011085</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>1817011008</v>
+        <v>1717011090</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1817011014</v>
+        <v>1757011013</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>1817011019</v>
+        <v>1757011014</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>1817011025</v>
+        <v>1817011008</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>1817011033</v>
+        <v>1817011014</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1817011056</v>
+        <v>1817011019</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>1817011060</v>
+        <v>1817011025</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>1817011064</v>
+        <v>1817011033</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>1817011065</v>
+        <v>1817011056</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>1817011073</v>
+        <v>1817011060</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>1817011077</v>
+        <v>1817011064</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>1817011079</v>
+        <v>1817011065</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>1817011081</v>
+        <v>1817011073</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>1817011082</v>
+        <v>1817011077</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>1817011083</v>
+        <v>1817011079</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>1817011086</v>
+        <v>1817011081</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>1817011087</v>
+        <v>1817011082</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>1817011090</v>
+        <v>1817011083</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>1817011092</v>
+        <v>1817011086</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>1817011097</v>
+        <v>1817011087</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>1817011101</v>
+        <v>1817011090</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>1857011001</v>
+        <v>1817011092</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>1857011003</v>
+        <v>1817011097</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>1857011004</v>
+        <v>1817011101</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>1857011010</v>
+        <v>1857011001</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>1917011001</v>
+        <v>1857011003</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>1917011002</v>
+        <v>1857011004</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>1917011003</v>
+        <v>1857011010</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>1917011004</v>
+        <v>1917011001</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>1917011005</v>
+        <v>1917011002</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>1917011006</v>
+        <v>1917011003</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>1917011007</v>
+        <v>1917011004</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>1917011008</v>
+        <v>1917011005</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>1917011009</v>
+        <v>1917011006</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>1917011010</v>
+        <v>1917011007</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>1917011011</v>
+        <v>1917011008</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>1917011012</v>
+        <v>1917011009</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>1917011013</v>
+        <v>1917011010</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>1917011014</v>
+        <v>1917011011</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>1917011016</v>
+        <v>1917011012</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>1917011017</v>
+        <v>1917011013</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>1917011018</v>
+        <v>1917011014</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>1917011019</v>
+        <v>1917011016</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>1917011020</v>
+        <v>1917011017</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>1917011021</v>
+        <v>1917011018</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>1917011022</v>
+        <v>1917011019</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>1917011023</v>
+        <v>1917011020</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>1917011025</v>
+        <v>1917011021</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>1917011028</v>
+        <v>1917011022</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>1917011029</v>
+        <v>1917011023</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>1917011031</v>
+        <v>1917011025</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>1917011034</v>
+        <v>1917011028</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>1917011035</v>
+        <v>1917011029</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>1917011036</v>
+        <v>1917011031</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1917011037</v>
+        <v>1917011034</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>1917011038</v>
+        <v>1917011035</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>1917011041</v>
+        <v>1917011036</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>1917011042</v>
+        <v>1917011037</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>1917011043</v>
+        <v>1917011038</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>1917011044</v>
+        <v>1917011041</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>1917011045</v>
+        <v>1917011042</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>1917011048</v>
+        <v>1917011043</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>1917011049</v>
+        <v>1917011044</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>1917011051</v>
+        <v>1917011045</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>1917011053</v>
+        <v>1917011048</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>1917011054</v>
+        <v>1917011049</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>1917011055</v>
+        <v>1917011051</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>1917011056</v>
+        <v>1917011053</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>1917011057</v>
+        <v>1917011054</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>1917011059</v>
+        <v>1917011055</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>1917011060</v>
+        <v>1917011056</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>1917011061</v>
+        <v>1917011057</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>1917011063</v>
+        <v>1917011059</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>1917011064</v>
+        <v>1917011060</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>1917011065</v>
+        <v>1917011061</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>1917011067</v>
+        <v>1917011063</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>1917011068</v>
+        <v>1917011064</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>1917011069</v>
+        <v>1917011065</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>1917011071</v>
+        <v>1917011067</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>1917011073</v>
+        <v>1917011068</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>1917011074</v>
+        <v>1917011069</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>1917011076</v>
+        <v>1917011071</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>1917011077</v>
+        <v>1917011073</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>1917011078</v>
+        <v>1917011074</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>1917011079</v>
+        <v>1917011076</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>1917011081</v>
+        <v>1917011077</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>1917011082</v>
+        <v>1917011078</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>1917011084</v>
+        <v>1917011079</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>1917011085</v>
+        <v>1917011081</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>1917011086</v>
+        <v>1917011082</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>1917011087</v>
+        <v>1917011084</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>1917011088</v>
+        <v>1917011085</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>1917011089</v>
+        <v>1917011086</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>1917011090</v>
+        <v>1917011087</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>1917011091</v>
+        <v>1917011088</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>1917011092</v>
+        <v>1917011089</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>1917011093</v>
+        <v>1917011090</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>1917011094</v>
+        <v>1917011091</v>
       </c>
       <c r="B112" t="s">
         <v>2</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>1917011096</v>
+        <v>1917011092</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>1917011097</v>
+        <v>1917011093</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>1917011098</v>
+        <v>1917011094</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>1957011001</v>
+        <v>1917011096</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>1957011002</v>
+        <v>1917011097</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>1957011003</v>
+        <v>1917011098</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>1957011004</v>
+        <v>1957011001</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>1957011005</v>
+        <v>1957011002</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>1957011006</v>
+        <v>1957011003</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>1957011007</v>
+        <v>1957011004</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>1957011008</v>
+        <v>1957011005</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>1957011009</v>
+        <v>1957011006</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>1957011010</v>
+        <v>1957011007</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>1957011011</v>
+        <v>1957011008</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>1957011014</v>
+        <v>1957011009</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>1957011015</v>
+        <v>1957011010</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>1957011016</v>
+        <v>1957011011</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>1957011017</v>
+        <v>1957011014</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>1957011019</v>
+        <v>1957011015</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>1957011020</v>
+        <v>1957011016</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>1957011021</v>
+        <v>1957011017</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>2017011001</v>
+        <v>1957011019</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>2017011002</v>
+        <v>1957011020</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>2017011003</v>
+        <v>1957011021</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>2017011004</v>
+        <v>2017011001</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>2017011005</v>
+        <v>2017011002</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>2017011006</v>
+        <v>2017011003</v>
       </c>
       <c r="B139" t="s">
         <v>2</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>2017011007</v>
+        <v>2017011004</v>
       </c>
       <c r="B140" t="s">
         <v>2</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>2017011008</v>
+        <v>2017011005</v>
       </c>
       <c r="B141" t="s">
         <v>2</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>2017011009</v>
+        <v>2017011006</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>2017011010</v>
+        <v>2017011007</v>
       </c>
       <c r="B143" t="s">
         <v>2</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>2017011011</v>
+        <v>2017011008</v>
       </c>
       <c r="B144" t="s">
         <v>2</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>2017011012</v>
+        <v>2017011009</v>
       </c>
       <c r="B145" t="s">
         <v>2</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>2017011014</v>
+        <v>2017011010</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>2017011015</v>
+        <v>2017011011</v>
       </c>
       <c r="B147" t="s">
         <v>2</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>2017011016</v>
+        <v>2017011012</v>
       </c>
       <c r="B148" t="s">
         <v>2</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>2017011017</v>
+        <v>2017011014</v>
       </c>
       <c r="B149" t="s">
         <v>2</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>2017011018</v>
+        <v>2017011015</v>
       </c>
       <c r="B150" t="s">
         <v>2</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>2017011019</v>
+        <v>2017011016</v>
       </c>
       <c r="B151" t="s">
         <v>2</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>2017011020</v>
+        <v>2017011017</v>
       </c>
       <c r="B152" t="s">
         <v>2</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>2017011021</v>
+        <v>2017011018</v>
       </c>
       <c r="B153" t="s">
         <v>2</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>2017011022</v>
+        <v>2017011019</v>
       </c>
       <c r="B154" t="s">
         <v>2</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>2017011023</v>
+        <v>2017011020</v>
       </c>
       <c r="B155" t="s">
         <v>2</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>2017011024</v>
+        <v>2017011021</v>
       </c>
       <c r="B156" t="s">
         <v>2</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>2017011025</v>
+        <v>2017011022</v>
       </c>
       <c r="B157" t="s">
         <v>2</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>2017011026</v>
+        <v>2017011023</v>
       </c>
       <c r="B158" t="s">
         <v>2</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>2017011027</v>
+        <v>2017011024</v>
       </c>
       <c r="B159" t="s">
         <v>2</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>2017011028</v>
+        <v>2017011025</v>
       </c>
       <c r="B160" t="s">
         <v>2</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>2017011029</v>
+        <v>2017011026</v>
       </c>
       <c r="B161" t="s">
         <v>2</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>2017011030</v>
+        <v>2017011027</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>2017011031</v>
+        <v>2017011028</v>
       </c>
       <c r="B163" t="s">
         <v>2</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>2017011032</v>
+        <v>2017011029</v>
       </c>
       <c r="B164" t="s">
         <v>2</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>2017011033</v>
+        <v>2017011030</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>2017011034</v>
+        <v>2017011031</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>2017011035</v>
+        <v>2017011032</v>
       </c>
       <c r="B167" t="s">
         <v>2</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>2017011036</v>
+        <v>2017011033</v>
       </c>
       <c r="B168" t="s">
         <v>2</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>2017011037</v>
+        <v>2017011034</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>2017011038</v>
+        <v>2017011035</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>2017011039</v>
+        <v>2017011036</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>2017011040</v>
+        <v>2017011037</v>
       </c>
       <c r="B172" t="s">
         <v>2</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>2017011041</v>
+        <v>2017011038</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>2017011042</v>
+        <v>2017011039</v>
       </c>
       <c r="B174" t="s">
         <v>2</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>2017011043</v>
+        <v>2017011040</v>
       </c>
       <c r="B175" t="s">
         <v>2</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>2017011044</v>
+        <v>2017011041</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>2017011045</v>
+        <v>2017011042</v>
       </c>
       <c r="B177" t="s">
         <v>2</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>2017011046</v>
+        <v>2017011043</v>
       </c>
       <c r="B178" t="s">
         <v>2</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>2017011047</v>
+        <v>2017011044</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>2017011048</v>
+        <v>2017011045</v>
       </c>
       <c r="B180" t="s">
         <v>2</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>2017011049</v>
+        <v>2017011046</v>
       </c>
       <c r="B181" t="s">
         <v>2</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>2017011050</v>
+        <v>2017011047</v>
       </c>
       <c r="B182" t="s">
         <v>2</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>2017011051</v>
+        <v>2017011048</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>2017011052</v>
+        <v>2017011049</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>2017011053</v>
+        <v>2017011050</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>2017011054</v>
+        <v>2017011051</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>2017011055</v>
+        <v>2017011052</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>2017011056</v>
+        <v>2017011053</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>2017011057</v>
+        <v>2017011054</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>2017011058</v>
+        <v>2017011055</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>2017011059</v>
+        <v>2017011056</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>2017011060</v>
+        <v>2017011057</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>2017011061</v>
+        <v>2017011058</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>2017011062</v>
+        <v>2017011059</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>2017011063</v>
+        <v>2017011060</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>2017011064</v>
+        <v>2017011061</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>2017011065</v>
+        <v>2017011062</v>
       </c>
       <c r="B197" t="s">
         <v>2</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>2017011066</v>
+        <v>2017011063</v>
       </c>
       <c r="B198" t="s">
         <v>2</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>2017011067</v>
+        <v>2017011064</v>
       </c>
       <c r="B199" t="s">
         <v>2</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>2017011068</v>
+        <v>2017011065</v>
       </c>
       <c r="B200" t="s">
         <v>2</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>2017011069</v>
+        <v>2017011066</v>
       </c>
       <c r="B201" t="s">
         <v>2</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>2017011070</v>
+        <v>2017011067</v>
       </c>
       <c r="B202" t="s">
         <v>2</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>2017011071</v>
+        <v>2017011068</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>2017011072</v>
+        <v>2017011069</v>
       </c>
       <c r="B204" t="s">
         <v>2</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>2017011073</v>
+        <v>2017011070</v>
       </c>
       <c r="B205" t="s">
         <v>2</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>2017011074</v>
+        <v>2017011071</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>2017011075</v>
+        <v>2017011072</v>
       </c>
       <c r="B207" t="s">
         <v>2</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>2017011076</v>
+        <v>2017011073</v>
       </c>
       <c r="B208" t="s">
         <v>2</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>2017011077</v>
+        <v>2017011074</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>2017011078</v>
+        <v>2017011075</v>
       </c>
       <c r="B210" t="s">
         <v>2</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>2017011079</v>
+        <v>2017011076</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>2017011080</v>
+        <v>2017011077</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>2017011081</v>
+        <v>2017011078</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>2017011082</v>
+        <v>2017011079</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>2017011083</v>
+        <v>2017011080</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>2017011084</v>
+        <v>2017011081</v>
       </c>
       <c r="B216" t="s">
         <v>2</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>2017011085</v>
+        <v>2017011082</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>2017011086</v>
+        <v>2017011083</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>2017011087</v>
+        <v>2017011084</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>2017011088</v>
+        <v>2017011085</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>2017011089</v>
+        <v>2017011086</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>2017011090</v>
+        <v>2017011087</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>2017011091</v>
+        <v>2017011088</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>2017011092</v>
+        <v>2017011089</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>2017011093</v>
+        <v>2017011090</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>2017011094</v>
+        <v>2017011091</v>
       </c>
       <c r="B226" t="s">
         <v>2</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>2017011095</v>
+        <v>2017011092</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>2017011096</v>
+        <v>2017011093</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>2017011097</v>
+        <v>2017011094</v>
       </c>
       <c r="B229" t="s">
         <v>2</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>2017011098</v>
+        <v>2017011095</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>2017011099</v>
+        <v>2017011096</v>
       </c>
       <c r="B231" t="s">
         <v>2</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>2017011100</v>
+        <v>2017011097</v>
       </c>
       <c r="B232" t="s">
         <v>2</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>2017011101</v>
+        <v>2017011098</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>2017011102</v>
+        <v>2017011099</v>
       </c>
       <c r="B234" t="s">
         <v>2</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>2057011001</v>
+        <v>2017011100</v>
       </c>
       <c r="B235" t="s">
         <v>2</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>2057011002</v>
+        <v>2017011101</v>
       </c>
       <c r="B236" t="s">
         <v>2</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>2057011003</v>
+        <v>2017011102</v>
       </c>
       <c r="B237" t="s">
         <v>2</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>2057011004</v>
+        <v>2057011001</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>2057011005</v>
+        <v>2057011002</v>
       </c>
       <c r="B239" t="s">
         <v>2</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>2057011006</v>
+        <v>2057011003</v>
       </c>
       <c r="B240" t="s">
         <v>2</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>2057011007</v>
+        <v>2057011004</v>
       </c>
       <c r="B241" t="s">
         <v>2</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>2057011008</v>
+        <v>2057011005</v>
       </c>
       <c r="B242" t="s">
         <v>2</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>2057011009</v>
+        <v>2057011006</v>
       </c>
       <c r="B243" t="s">
         <v>2</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>2057011010</v>
+        <v>2057011007</v>
       </c>
       <c r="B244" t="s">
         <v>2</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>2057011011</v>
+        <v>2057011008</v>
       </c>
       <c r="B245" t="s">
         <v>2</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>2057011012</v>
+        <v>2057011009</v>
       </c>
       <c r="B246" t="s">
         <v>2</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>2057011013</v>
+        <v>2057011010</v>
       </c>
       <c r="B247" t="s">
         <v>2</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>2057011014</v>
+        <v>2057011011</v>
       </c>
       <c r="B248" t="s">
         <v>2</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>2057011015</v>
+        <v>2057011012</v>
       </c>
       <c r="B249" t="s">
         <v>2</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>2057011016</v>
+        <v>2057011013</v>
       </c>
       <c r="B250" t="s">
         <v>2</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>2067011001</v>
+        <v>2057011014</v>
       </c>
       <c r="B251" t="s">
         <v>2</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>2067011002</v>
+        <v>2057011015</v>
       </c>
       <c r="B252" t="s">
         <v>2</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>2117011001</v>
+        <v>2057011016</v>
       </c>
       <c r="B253" t="s">
         <v>2</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>2117011002</v>
+        <v>2067011001</v>
       </c>
       <c r="B254" t="s">
         <v>2</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>2117011003</v>
+        <v>2067011002</v>
       </c>
       <c r="B255" t="s">
         <v>2</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>2117011004</v>
+        <v>2117011001</v>
       </c>
       <c r="B256" t="s">
         <v>2</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>2117011005</v>
+        <v>2117011002</v>
       </c>
       <c r="B257" t="s">
         <v>2</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>2117011006</v>
+        <v>2117011003</v>
       </c>
       <c r="B258" t="s">
         <v>2</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>2117011007</v>
+        <v>2117011004</v>
       </c>
       <c r="B259" t="s">
         <v>2</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>2117011008</v>
+        <v>2117011005</v>
       </c>
       <c r="B260" t="s">
         <v>2</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>2117011009</v>
+        <v>2117011006</v>
       </c>
       <c r="B261" t="s">
         <v>2</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>2117011010</v>
+        <v>2117011007</v>
       </c>
       <c r="B262" t="s">
         <v>2</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>2117011011</v>
+        <v>2117011008</v>
       </c>
       <c r="B263" t="s">
         <v>2</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>2117011012</v>
+        <v>2117011009</v>
       </c>
       <c r="B264" t="s">
         <v>2</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>2117011013</v>
+        <v>2117011010</v>
       </c>
       <c r="B265" t="s">
         <v>2</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>2117011014</v>
+        <v>2117011011</v>
       </c>
       <c r="B266" t="s">
         <v>2</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>2117011015</v>
+        <v>2117011012</v>
       </c>
       <c r="B267" t="s">
         <v>2</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>2117011016</v>
+        <v>2117011013</v>
       </c>
       <c r="B268" t="s">
         <v>2</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>2117011017</v>
+        <v>2117011014</v>
       </c>
       <c r="B269" t="s">
         <v>2</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>2117011018</v>
+        <v>2117011015</v>
       </c>
       <c r="B270" t="s">
         <v>2</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>2117011019</v>
+        <v>2117011016</v>
       </c>
       <c r="B271" t="s">
         <v>2</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>2117011020</v>
+        <v>2117011017</v>
       </c>
       <c r="B272" t="s">
         <v>2</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>2117011021</v>
+        <v>2117011018</v>
       </c>
       <c r="B273" t="s">
         <v>2</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>2117011022</v>
+        <v>2117011019</v>
       </c>
       <c r="B274" t="s">
         <v>2</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>2117011023</v>
+        <v>2117011020</v>
       </c>
       <c r="B275" t="s">
         <v>2</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>2117011024</v>
+        <v>2117011021</v>
       </c>
       <c r="B276" t="s">
         <v>2</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>2117011025</v>
+        <v>2117011022</v>
       </c>
       <c r="B277" t="s">
         <v>2</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>2117011026</v>
+        <v>2117011023</v>
       </c>
       <c r="B278" t="s">
         <v>2</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>2117011027</v>
+        <v>2117011024</v>
       </c>
       <c r="B279" t="s">
         <v>2</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>2117011028</v>
+        <v>2117011025</v>
       </c>
       <c r="B280" t="s">
         <v>2</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>2117011029</v>
+        <v>2117011026</v>
       </c>
       <c r="B281" t="s">
         <v>2</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>2117011030</v>
+        <v>2117011027</v>
       </c>
       <c r="B282" t="s">
         <v>2</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>2117011031</v>
+        <v>2117011028</v>
       </c>
       <c r="B283" t="s">
         <v>2</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>2117011032</v>
+        <v>2117011029</v>
       </c>
       <c r="B284" t="s">
         <v>2</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>2117011033</v>
+        <v>2117011030</v>
       </c>
       <c r="B285" t="s">
         <v>2</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>2117011034</v>
+        <v>2117011031</v>
       </c>
       <c r="B286" t="s">
         <v>2</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>2117011035</v>
+        <v>2117011032</v>
       </c>
       <c r="B287" t="s">
         <v>2</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>2117011036</v>
+        <v>2117011033</v>
       </c>
       <c r="B288" t="s">
         <v>2</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>2117011037</v>
+        <v>2117011034</v>
       </c>
       <c r="B289" t="s">
         <v>2</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>2117011038</v>
+        <v>2117011035</v>
       </c>
       <c r="B290" t="s">
         <v>2</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>2117011039</v>
+        <v>2117011036</v>
       </c>
       <c r="B291" t="s">
         <v>2</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>2117011040</v>
+        <v>2117011037</v>
       </c>
       <c r="B292" t="s">
         <v>2</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>2117011041</v>
+        <v>2117011038</v>
       </c>
       <c r="B293" t="s">
         <v>2</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>2117011042</v>
+        <v>2117011039</v>
       </c>
       <c r="B294" t="s">
         <v>2</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>2117011043</v>
+        <v>2117011040</v>
       </c>
       <c r="B295" t="s">
         <v>2</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>2117011044</v>
+        <v>2117011041</v>
       </c>
       <c r="B296" t="s">
         <v>2</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>2117011045</v>
+        <v>2117011042</v>
       </c>
       <c r="B297" t="s">
         <v>2</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>2117011046</v>
+        <v>2117011043</v>
       </c>
       <c r="B298" t="s">
         <v>2</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>2117011047</v>
+        <v>2117011044</v>
       </c>
       <c r="B299" t="s">
         <v>2</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>2117011048</v>
+        <v>2117011045</v>
       </c>
       <c r="B300" t="s">
         <v>2</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>2117011049</v>
+        <v>2117011046</v>
       </c>
       <c r="B301" t="s">
         <v>2</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>2117011050</v>
+        <v>2117011047</v>
       </c>
       <c r="B302" t="s">
         <v>2</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>2117011051</v>
+        <v>2117011048</v>
       </c>
       <c r="B303" t="s">
         <v>2</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>2117011052</v>
+        <v>2117011049</v>
       </c>
       <c r="B304" t="s">
         <v>2</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>2117011053</v>
+        <v>2117011050</v>
       </c>
       <c r="B305" t="s">
         <v>2</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>2117011054</v>
+        <v>2117011051</v>
       </c>
       <c r="B306" t="s">
         <v>2</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>2117011055</v>
+        <v>2117011052</v>
       </c>
       <c r="B307" t="s">
         <v>2</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>2117011056</v>
+        <v>2117011053</v>
       </c>
       <c r="B308" t="s">
         <v>2</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>2117011057</v>
+        <v>2117011054</v>
       </c>
       <c r="B309" t="s">
         <v>2</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>2117011058</v>
+        <v>2117011055</v>
       </c>
       <c r="B310" t="s">
         <v>2</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>2117011059</v>
+        <v>2117011056</v>
       </c>
       <c r="B311" t="s">
         <v>2</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>2117011060</v>
+        <v>2117011057</v>
       </c>
       <c r="B312" t="s">
         <v>2</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>2117011061</v>
+        <v>2117011058</v>
       </c>
       <c r="B313" t="s">
         <v>2</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>2117011062</v>
+        <v>2117011059</v>
       </c>
       <c r="B314" t="s">
         <v>2</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>2117011063</v>
+        <v>2117011060</v>
       </c>
       <c r="B315" t="s">
         <v>2</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>2117011064</v>
+        <v>2117011061</v>
       </c>
       <c r="B316" t="s">
         <v>2</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>2117011065</v>
+        <v>2117011062</v>
       </c>
       <c r="B317" t="s">
         <v>2</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>2117011066</v>
+        <v>2117011063</v>
       </c>
       <c r="B318" t="s">
         <v>2</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>2117011067</v>
+        <v>2117011064</v>
       </c>
       <c r="B319" t="s">
         <v>2</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>2117011068</v>
+        <v>2117011065</v>
       </c>
       <c r="B320" t="s">
         <v>2</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>2117011069</v>
+        <v>2117011066</v>
       </c>
       <c r="B321" t="s">
         <v>2</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>2117011070</v>
+        <v>2117011067</v>
       </c>
       <c r="B322" t="s">
         <v>2</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>2117011071</v>
+        <v>2117011068</v>
       </c>
       <c r="B323" t="s">
         <v>2</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>2117011072</v>
+        <v>2117011069</v>
       </c>
       <c r="B324" t="s">
         <v>2</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>2117011073</v>
+        <v>2117011070</v>
       </c>
       <c r="B325" t="s">
         <v>2</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>2117011074</v>
+        <v>2117011071</v>
       </c>
       <c r="B326" t="s">
         <v>2</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>2117011075</v>
+        <v>2117011072</v>
       </c>
       <c r="B327" t="s">
         <v>2</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <v>2117011076</v>
+        <v>2117011073</v>
       </c>
       <c r="B328" t="s">
         <v>2</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>2117011077</v>
+        <v>2117011074</v>
       </c>
       <c r="B329" t="s">
         <v>2</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>2117011078</v>
+        <v>2117011075</v>
       </c>
       <c r="B330" t="s">
         <v>2</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>2117011079</v>
+        <v>2117011076</v>
       </c>
       <c r="B331" t="s">
         <v>2</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>2117011080</v>
+        <v>2117011077</v>
       </c>
       <c r="B332" t="s">
         <v>2</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>2117011081</v>
+        <v>2117011078</v>
       </c>
       <c r="B333" t="s">
         <v>2</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>2117011082</v>
+        <v>2117011079</v>
       </c>
       <c r="B334" t="s">
         <v>2</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>2117011083</v>
+        <v>2117011080</v>
       </c>
       <c r="B335" t="s">
         <v>2</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>2117011084</v>
+        <v>2117011081</v>
       </c>
       <c r="B336" t="s">
         <v>2</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>2117011085</v>
+        <v>2117011082</v>
       </c>
       <c r="B337" t="s">
         <v>2</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <v>2117011086</v>
+        <v>2117011083</v>
       </c>
       <c r="B338" t="s">
         <v>2</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>2117011087</v>
+        <v>2117011084</v>
       </c>
       <c r="B339" t="s">
         <v>2</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>2117011088</v>
+        <v>2117011085</v>
       </c>
       <c r="B340" t="s">
         <v>2</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <v>2117011089</v>
+        <v>2117011086</v>
       </c>
       <c r="B341" t="s">
         <v>2</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <v>2117011090</v>
+        <v>2117011087</v>
       </c>
       <c r="B342" t="s">
         <v>2</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>2117011091</v>
+        <v>2117011088</v>
       </c>
       <c r="B343" t="s">
         <v>2</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>2117011092</v>
+        <v>2117011089</v>
       </c>
       <c r="B344" t="s">
         <v>2</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>2117011093</v>
+        <v>2117011090</v>
       </c>
       <c r="B345" t="s">
         <v>2</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>2117011094</v>
+        <v>2117011091</v>
       </c>
       <c r="B346" t="s">
         <v>2</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>2117011095</v>
+        <v>2117011092</v>
       </c>
       <c r="B347" t="s">
         <v>2</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <v>2117011096</v>
+        <v>2117011093</v>
       </c>
       <c r="B348" t="s">
         <v>2</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>2117011097</v>
+        <v>2117011094</v>
       </c>
       <c r="B349" t="s">
         <v>2</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>2117011098</v>
+        <v>2117011095</v>
       </c>
       <c r="B350" t="s">
         <v>2</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>2117011099</v>
+        <v>2117011096</v>
       </c>
       <c r="B351" t="s">
         <v>2</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>2117011100</v>
+        <v>2117011097</v>
       </c>
       <c r="B352" t="s">
         <v>2</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <v>2117011101</v>
+        <v>2117011098</v>
       </c>
       <c r="B353" t="s">
         <v>2</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>2117011102</v>
+        <v>2117011099</v>
       </c>
       <c r="B354" t="s">
         <v>2</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <v>2117011103</v>
+        <v>2117011100</v>
       </c>
       <c r="B355" t="s">
         <v>2</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <v>2117011104</v>
+        <v>2117011101</v>
       </c>
       <c r="B356" t="s">
         <v>2</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <v>2117011105</v>
+        <v>2117011102</v>
       </c>
       <c r="B357" t="s">
         <v>2</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <v>2117011106</v>
+        <v>2117011103</v>
       </c>
       <c r="B358" t="s">
         <v>2</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <v>2117011107</v>
+        <v>2117011104</v>
       </c>
       <c r="B359" t="s">
         <v>2</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <v>2117011108</v>
+        <v>2117011105</v>
       </c>
       <c r="B360" t="s">
         <v>2</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <v>2117011109</v>
+        <v>2117011106</v>
       </c>
       <c r="B361" t="s">
         <v>2</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <v>2117011110</v>
+        <v>2117011107</v>
       </c>
       <c r="B362" t="s">
         <v>2</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <v>2117011111</v>
+        <v>2117011108</v>
       </c>
       <c r="B363" t="s">
         <v>2</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <v>2117011112</v>
+        <v>2117011109</v>
       </c>
       <c r="B364" t="s">
         <v>2</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <v>2157011001</v>
+        <v>2117011110</v>
       </c>
       <c r="B365" t="s">
         <v>2</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <v>2157011002</v>
+        <v>2117011111</v>
       </c>
       <c r="B366" t="s">
         <v>2</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <v>2157011003</v>
+        <v>2117011112</v>
       </c>
       <c r="B367" t="s">
         <v>2</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <v>2157011004</v>
+        <v>2157011001</v>
       </c>
       <c r="B368" t="s">
         <v>2</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <v>2157011005</v>
+        <v>2157011002</v>
       </c>
       <c r="B369" t="s">
         <v>2</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <v>2157011006</v>
+        <v>2157011003</v>
       </c>
       <c r="B370" t="s">
         <v>2</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <v>2157011007</v>
+        <v>2157011004</v>
       </c>
       <c r="B371" t="s">
         <v>2</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <v>2157011008</v>
+        <v>2157011005</v>
       </c>
       <c r="B372" t="s">
         <v>2</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <v>2157011009</v>
+        <v>2157011006</v>
       </c>
       <c r="B373" t="s">
         <v>2</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <v>2157011010</v>
+        <v>2157011007</v>
       </c>
       <c r="B374" t="s">
         <v>2</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <v>2157011011</v>
+        <v>2157011008</v>
       </c>
       <c r="B375" t="s">
         <v>2</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <v>2157011012</v>
+        <v>2157011009</v>
       </c>
       <c r="B376" t="s">
         <v>2</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <v>2167011001</v>
+        <v>2157011010</v>
       </c>
       <c r="B377" t="s">
         <v>2</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <v>2217011001</v>
+        <v>2157011011</v>
       </c>
       <c r="B378" t="s">
         <v>2</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <v>2217011002</v>
+        <v>2157011012</v>
       </c>
       <c r="B379" t="s">
         <v>2</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <v>2217011003</v>
+        <v>2167011001</v>
       </c>
       <c r="B380" t="s">
         <v>2</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <v>2217011004</v>
+        <v>2217011001</v>
       </c>
       <c r="B381" t="s">
         <v>2</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <v>2217011005</v>
+        <v>2217011002</v>
       </c>
       <c r="B382" t="s">
         <v>2</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <v>2217011006</v>
+        <v>2217011003</v>
       </c>
       <c r="B383" t="s">
         <v>2</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <v>2217011007</v>
+        <v>2217011004</v>
       </c>
       <c r="B384" t="s">
         <v>2</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <v>2217011008</v>
+        <v>2217011005</v>
       </c>
       <c r="B385" t="s">
         <v>2</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <v>2217011009</v>
+        <v>2217011006</v>
       </c>
       <c r="B386" t="s">
         <v>2</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <v>2217011010</v>
+        <v>2217011007</v>
       </c>
       <c r="B387" t="s">
         <v>2</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <v>2217011011</v>
+        <v>2217011008</v>
       </c>
       <c r="B388" t="s">
         <v>2</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <v>2217011012</v>
+        <v>2217011009</v>
       </c>
       <c r="B389" t="s">
         <v>2</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <v>2217011013</v>
+        <v>2217011010</v>
       </c>
       <c r="B390" t="s">
         <v>2</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <v>2217011014</v>
+        <v>2217011011</v>
       </c>
       <c r="B391" t="s">
         <v>2</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <v>2217011015</v>
+        <v>2217011012</v>
       </c>
       <c r="B392" t="s">
         <v>2</v>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <v>2217011016</v>
+        <v>2217011013</v>
       </c>
       <c r="B393" t="s">
         <v>2</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
-        <v>2217011017</v>
+        <v>2217011014</v>
       </c>
       <c r="B394" t="s">
         <v>2</v>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
-        <v>2217011018</v>
+        <v>2217011015</v>
       </c>
       <c r="B395" t="s">
         <v>2</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <v>2217011019</v>
+        <v>2217011016</v>
       </c>
       <c r="B396" t="s">
         <v>2</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
-        <v>2217011020</v>
+        <v>2217011017</v>
       </c>
       <c r="B397" t="s">
         <v>2</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
-        <v>2217011021</v>
+        <v>2217011018</v>
       </c>
       <c r="B398" t="s">
         <v>2</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
-        <v>2217011022</v>
+        <v>2217011019</v>
       </c>
       <c r="B399" t="s">
         <v>2</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
-        <v>2217011023</v>
+        <v>2217011020</v>
       </c>
       <c r="B400" t="s">
         <v>2</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
-        <v>2217011024</v>
+        <v>2217011021</v>
       </c>
       <c r="B401" t="s">
         <v>2</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
-        <v>2217011025</v>
+        <v>2217011022</v>
       </c>
       <c r="B402" t="s">
         <v>2</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
-        <v>2217011026</v>
+        <v>2217011023</v>
       </c>
       <c r="B403" t="s">
         <v>2</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
-        <v>2217011027</v>
+        <v>2217011024</v>
       </c>
       <c r="B404" t="s">
         <v>2</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
-        <v>2217011028</v>
+        <v>2217011025</v>
       </c>
       <c r="B405" t="s">
         <v>2</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
-        <v>2217011029</v>
+        <v>2217011026</v>
       </c>
       <c r="B406" t="s">
         <v>2</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
-        <v>2217011030</v>
+        <v>2217011027</v>
       </c>
       <c r="B407" t="s">
         <v>2</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
-        <v>2217011031</v>
+        <v>2217011028</v>
       </c>
       <c r="B408" t="s">
         <v>2</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
-        <v>2217011032</v>
+        <v>2217011029</v>
       </c>
       <c r="B409" t="s">
         <v>2</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
-        <v>2217011033</v>
+        <v>2217011030</v>
       </c>
       <c r="B410" t="s">
         <v>2</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
-        <v>2217011034</v>
+        <v>2217011031</v>
       </c>
       <c r="B411" t="s">
         <v>2</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
-        <v>2217011035</v>
+        <v>2217011032</v>
       </c>
       <c r="B412" t="s">
         <v>2</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
-        <v>2217011036</v>
+        <v>2217011033</v>
       </c>
       <c r="B413" t="s">
         <v>2</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
-        <v>2217011037</v>
+        <v>2217011034</v>
       </c>
       <c r="B414" t="s">
         <v>2</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
-        <v>2217011038</v>
+        <v>2217011035</v>
       </c>
       <c r="B415" t="s">
         <v>2</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
-        <v>2217011039</v>
+        <v>2217011036</v>
       </c>
       <c r="B416" t="s">
         <v>2</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
-        <v>2217011040</v>
+        <v>2217011037</v>
       </c>
       <c r="B417" t="s">
         <v>2</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
-        <v>2217011041</v>
+        <v>2217011038</v>
       </c>
       <c r="B418" t="s">
         <v>2</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
-        <v>2217011042</v>
+        <v>2217011039</v>
       </c>
       <c r="B419" t="s">
         <v>2</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
-        <v>2217011043</v>
+        <v>2217011040</v>
       </c>
       <c r="B420" t="s">
         <v>2</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
-        <v>2217011044</v>
+        <v>2217011041</v>
       </c>
       <c r="B421" t="s">
         <v>2</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
-        <v>2217011045</v>
+        <v>2217011042</v>
       </c>
       <c r="B422" t="s">
         <v>2</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
-        <v>2217011046</v>
+        <v>2217011043</v>
       </c>
       <c r="B423" t="s">
         <v>2</v>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
-        <v>2217011047</v>
+        <v>2217011044</v>
       </c>
       <c r="B424" t="s">
         <v>2</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
-        <v>2217011048</v>
+        <v>2217011045</v>
       </c>
       <c r="B425" t="s">
         <v>2</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
-        <v>2217011049</v>
+        <v>2217011046</v>
       </c>
       <c r="B426" t="s">
         <v>2</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
-        <v>2217011050</v>
+        <v>2217011047</v>
       </c>
       <c r="B427" t="s">
         <v>2</v>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
-        <v>2217011051</v>
+        <v>2217011048</v>
       </c>
       <c r="B428" t="s">
         <v>2</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
-        <v>2217011052</v>
+        <v>2217011049</v>
       </c>
       <c r="B429" t="s">
         <v>2</v>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
-        <v>2217011053</v>
+        <v>2217011050</v>
       </c>
       <c r="B430" t="s">
         <v>2</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
-        <v>2217011054</v>
+        <v>2217011051</v>
       </c>
       <c r="B431" t="s">
         <v>2</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
-        <v>2217011055</v>
+        <v>2217011052</v>
       </c>
       <c r="B432" t="s">
         <v>2</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
-        <v>2217011056</v>
+        <v>2217011053</v>
       </c>
       <c r="B433" t="s">
         <v>2</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
-        <v>2217011057</v>
+        <v>2217011054</v>
       </c>
       <c r="B434" t="s">
         <v>2</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
-        <v>2217011058</v>
+        <v>2217011055</v>
       </c>
       <c r="B435" t="s">
         <v>2</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
-        <v>2217011059</v>
+        <v>2217011056</v>
       </c>
       <c r="B436" t="s">
         <v>2</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
-        <v>2217011060</v>
+        <v>2217011057</v>
       </c>
       <c r="B437" t="s">
         <v>2</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
-        <v>2217011061</v>
+        <v>2217011058</v>
       </c>
       <c r="B438" t="s">
         <v>2</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
-        <v>2217011062</v>
+        <v>2217011059</v>
       </c>
       <c r="B439" t="s">
         <v>2</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
-        <v>2217011063</v>
+        <v>2217011060</v>
       </c>
       <c r="B440" t="s">
         <v>2</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
-        <v>2217011064</v>
+        <v>2217011061</v>
       </c>
       <c r="B441" t="s">
         <v>2</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
-        <v>2217011065</v>
+        <v>2217011062</v>
       </c>
       <c r="B442" t="s">
         <v>2</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
-        <v>2217011066</v>
+        <v>2217011063</v>
       </c>
       <c r="B443" t="s">
         <v>2</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
-        <v>2217011067</v>
+        <v>2217011064</v>
       </c>
       <c r="B444" t="s">
         <v>2</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
-        <v>2217011068</v>
+        <v>2217011065</v>
       </c>
       <c r="B445" t="s">
         <v>2</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
-        <v>2217011069</v>
+        <v>2217011066</v>
       </c>
       <c r="B446" t="s">
         <v>2</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
-        <v>2217011070</v>
+        <v>2217011067</v>
       </c>
       <c r="B447" t="s">
         <v>2</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
-        <v>2217011071</v>
+        <v>2217011068</v>
       </c>
       <c r="B448" t="s">
         <v>2</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
-        <v>2217011072</v>
+        <v>2217011069</v>
       </c>
       <c r="B449" t="s">
         <v>2</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
-        <v>2217011073</v>
+        <v>2217011070</v>
       </c>
       <c r="B450" t="s">
         <v>2</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
-        <v>2217011074</v>
+        <v>2217011071</v>
       </c>
       <c r="B451" t="s">
         <v>2</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
-        <v>2217011075</v>
+        <v>2217011072</v>
       </c>
       <c r="B452" t="s">
         <v>2</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
-        <v>2217011076</v>
+        <v>2217011073</v>
       </c>
       <c r="B453" t="s">
         <v>2</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
-        <v>2217011077</v>
+        <v>2217011074</v>
       </c>
       <c r="B454" t="s">
         <v>2</v>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
-        <v>2217011078</v>
+        <v>2217011075</v>
       </c>
       <c r="B455" t="s">
         <v>2</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
-        <v>2217011079</v>
+        <v>2217011076</v>
       </c>
       <c r="B456" t="s">
         <v>2</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
-        <v>2217011080</v>
+        <v>2217011077</v>
       </c>
       <c r="B457" t="s">
         <v>2</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
-        <v>2217011081</v>
+        <v>2217011078</v>
       </c>
       <c r="B458" t="s">
         <v>2</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
-        <v>2217011082</v>
+        <v>2217011079</v>
       </c>
       <c r="B459" t="s">
         <v>2</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
-        <v>2217011083</v>
+        <v>2217011080</v>
       </c>
       <c r="B460" t="s">
         <v>2</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
-        <v>2217011084</v>
+        <v>2217011081</v>
       </c>
       <c r="B461" t="s">
         <v>2</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
-        <v>2217011085</v>
+        <v>2217011082</v>
       </c>
       <c r="B462" t="s">
         <v>2</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
-        <v>2217011086</v>
+        <v>2217011083</v>
       </c>
       <c r="B463" t="s">
         <v>2</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
-        <v>2217011087</v>
+        <v>2217011084</v>
       </c>
       <c r="B464" t="s">
         <v>2</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
-        <v>2217011088</v>
+        <v>2217011085</v>
       </c>
       <c r="B465" t="s">
         <v>2</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
-        <v>2217011089</v>
+        <v>2217011086</v>
       </c>
       <c r="B466" t="s">
         <v>2</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
-        <v>2217011090</v>
+        <v>2217011087</v>
       </c>
       <c r="B467" t="s">
         <v>2</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
-        <v>2217011091</v>
+        <v>2217011088</v>
       </c>
       <c r="B468" t="s">
         <v>2</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
-        <v>2217011092</v>
+        <v>2217011089</v>
       </c>
       <c r="B469" t="s">
         <v>2</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
-        <v>2217011093</v>
+        <v>2217011090</v>
       </c>
       <c r="B470" t="s">
         <v>2</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
-        <v>2217011094</v>
+        <v>2217011091</v>
       </c>
       <c r="B471" t="s">
         <v>2</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
-        <v>2217011095</v>
+        <v>2217011092</v>
       </c>
       <c r="B472" t="s">
         <v>2</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
-        <v>2217011096</v>
+        <v>2217011093</v>
       </c>
       <c r="B473" t="s">
         <v>2</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
-        <v>2217011097</v>
+        <v>2217011094</v>
       </c>
       <c r="B474" t="s">
         <v>2</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
-        <v>2217011098</v>
+        <v>2217011095</v>
       </c>
       <c r="B475" t="s">
         <v>2</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
-        <v>2217011099</v>
+        <v>2217011096</v>
       </c>
       <c r="B476" t="s">
         <v>2</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
-        <v>2217011100</v>
+        <v>2217011097</v>
       </c>
       <c r="B477" t="s">
         <v>2</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
-        <v>2217011101</v>
+        <v>2217011098</v>
       </c>
       <c r="B478" t="s">
         <v>2</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
-        <v>2217011102</v>
+        <v>2217011099</v>
       </c>
       <c r="B479" t="s">
         <v>2</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
-        <v>2217011103</v>
+        <v>2217011100</v>
       </c>
       <c r="B480" t="s">
         <v>2</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
-        <v>2217011104</v>
+        <v>2217011101</v>
       </c>
       <c r="B481" t="s">
         <v>2</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
-        <v>2217011105</v>
+        <v>2217011102</v>
       </c>
       <c r="B482" t="s">
         <v>2</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
-        <v>2217011106</v>
+        <v>2217011103</v>
       </c>
       <c r="B483" t="s">
         <v>2</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
-        <v>2217011107</v>
+        <v>2217011104</v>
       </c>
       <c r="B484" t="s">
         <v>2</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
-        <v>2217011108</v>
+        <v>2217011105</v>
       </c>
       <c r="B485" t="s">
         <v>2</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
-        <v>2217011109</v>
+        <v>2217011106</v>
       </c>
       <c r="B486" t="s">
         <v>2</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
-        <v>2217011110</v>
+        <v>2217011107</v>
       </c>
       <c r="B487" t="s">
         <v>2</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
-        <v>2217011111</v>
+        <v>2217011108</v>
       </c>
       <c r="B488" t="s">
         <v>2</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
-        <v>2217011112</v>
+        <v>2217011109</v>
       </c>
       <c r="B489" t="s">
         <v>2</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
-        <v>2217011113</v>
+        <v>2217011110</v>
       </c>
       <c r="B490" t="s">
         <v>2</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
-        <v>2217011114</v>
+        <v>2217011111</v>
       </c>
       <c r="B491" t="s">
         <v>2</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
-        <v>2217011115</v>
+        <v>2217011112</v>
       </c>
       <c r="B492" t="s">
         <v>2</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
-        <v>2217011116</v>
+        <v>2217011113</v>
       </c>
       <c r="B493" t="s">
         <v>2</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
-        <v>2217011117</v>
+        <v>2217011114</v>
       </c>
       <c r="B494" t="s">
         <v>2</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
-        <v>2217011118</v>
+        <v>2217011115</v>
       </c>
       <c r="B495" t="s">
         <v>2</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
-        <v>2217011119</v>
+        <v>2217011116</v>
       </c>
       <c r="B496" t="s">
         <v>2</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
-        <v>2217011120</v>
+        <v>2217011117</v>
       </c>
       <c r="B497" t="s">
         <v>2</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
-        <v>2217011121</v>
+        <v>2217011118</v>
       </c>
       <c r="B498" t="s">
         <v>2</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
-        <v>2217011122</v>
+        <v>2217011119</v>
       </c>
       <c r="B499" t="s">
         <v>2</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
-        <v>2217011123</v>
+        <v>2217011120</v>
       </c>
       <c r="B500" t="s">
         <v>2</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
-        <v>2217011124</v>
+        <v>2217011121</v>
       </c>
       <c r="B501" t="s">
         <v>2</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
-        <v>2217011125</v>
+        <v>2217011122</v>
       </c>
       <c r="B502" t="s">
         <v>2</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
-        <v>2217011126</v>
+        <v>2217011123</v>
       </c>
       <c r="B503" t="s">
         <v>2</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
-        <v>2217011127</v>
+        <v>2217011124</v>
       </c>
       <c r="B504" t="s">
         <v>2</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
-        <v>2217011128</v>
+        <v>2217011125</v>
       </c>
       <c r="B505" t="s">
         <v>2</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
-        <v>2217011129</v>
+        <v>2217011126</v>
       </c>
       <c r="B506" t="s">
         <v>2</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
-        <v>2217011130</v>
+        <v>2217011127</v>
       </c>
       <c r="B507" t="s">
         <v>2</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
-        <v>2217011131</v>
+        <v>2217011128</v>
       </c>
       <c r="B508" t="s">
         <v>2</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
-        <v>2217011132</v>
+        <v>2217011129</v>
       </c>
       <c r="B509" t="s">
         <v>2</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
-        <v>2217011133</v>
+        <v>2217011130</v>
       </c>
       <c r="B510" t="s">
         <v>2</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
-        <v>2217011134</v>
+        <v>2217011131</v>
       </c>
       <c r="B511" t="s">
         <v>2</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
-        <v>2217011135</v>
+        <v>2217011132</v>
       </c>
       <c r="B512" t="s">
         <v>2</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
-        <v>2217011136</v>
+        <v>2217011133</v>
       </c>
       <c r="B513" t="s">
         <v>2</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
-        <v>2217011137</v>
+        <v>2217011134</v>
       </c>
       <c r="B514" t="s">
         <v>2</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
-        <v>2217011138</v>
+        <v>2217011135</v>
       </c>
       <c r="B515" t="s">
         <v>2</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
-        <v>2217011139</v>
+        <v>2217011136</v>
       </c>
       <c r="B516" t="s">
         <v>2</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
-        <v>2217011140</v>
+        <v>2217011137</v>
       </c>
       <c r="B517" t="s">
         <v>2</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
-        <v>2217011141</v>
+        <v>2217011138</v>
       </c>
       <c r="B518" t="s">
         <v>2</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
-        <v>2217011142</v>
+        <v>2217011139</v>
       </c>
       <c r="B519" t="s">
         <v>2</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
-        <v>2217011143</v>
+        <v>2217011140</v>
       </c>
       <c r="B520" t="s">
         <v>2</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
-        <v>2217011144</v>
+        <v>2217011141</v>
       </c>
       <c r="B521" t="s">
         <v>2</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
-        <v>2217011145</v>
+        <v>2217011142</v>
       </c>
       <c r="B522" t="s">
         <v>2</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
-        <v>2217011146</v>
+        <v>2217011143</v>
       </c>
       <c r="B523" t="s">
         <v>2</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
-        <v>2217011147</v>
+        <v>2217011144</v>
       </c>
       <c r="B524" t="s">
         <v>2</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
-        <v>2217011148</v>
+        <v>2217011145</v>
       </c>
       <c r="B525" t="s">
         <v>2</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
-        <v>2217011149</v>
+        <v>2217011146</v>
       </c>
       <c r="B526" t="s">
         <v>2</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
-        <v>2217011150</v>
+        <v>2217011147</v>
       </c>
       <c r="B527" t="s">
         <v>2</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
-        <v>2217011151</v>
+        <v>2217011148</v>
       </c>
       <c r="B528" t="s">
         <v>2</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
-        <v>2217011152</v>
+        <v>2217011149</v>
       </c>
       <c r="B529" t="s">
         <v>2</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
-        <v>2217011153</v>
+        <v>2217011150</v>
       </c>
       <c r="B530" t="s">
         <v>2</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
-        <v>2217011154</v>
+        <v>2217011151</v>
       </c>
       <c r="B531" t="s">
         <v>2</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
-        <v>2217011155</v>
+        <v>2217011152</v>
       </c>
       <c r="B532" t="s">
         <v>2</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
-        <v>2217011156</v>
+        <v>2217011153</v>
       </c>
       <c r="B533" t="s">
         <v>2</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
-        <v>2217011157</v>
+        <v>2217011154</v>
       </c>
       <c r="B534" t="s">
         <v>2</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
-        <v>2217011158</v>
+        <v>2217011155</v>
       </c>
       <c r="B535" t="s">
         <v>2</v>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
-        <v>2217011159</v>
+        <v>2217011156</v>
       </c>
       <c r="B536" t="s">
         <v>2</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
-        <v>2217011160</v>
+        <v>2217011157</v>
       </c>
       <c r="B537" t="s">
         <v>2</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
-        <v>2217011161</v>
+        <v>2217011158</v>
       </c>
       <c r="B538" t="s">
         <v>2</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
-        <v>2217011162</v>
+        <v>2217011159</v>
       </c>
       <c r="B539" t="s">
         <v>2</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
-        <v>2217011163</v>
+        <v>2217011160</v>
       </c>
       <c r="B540" t="s">
         <v>2</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
-        <v>2217011164</v>
+        <v>2217011161</v>
       </c>
       <c r="B541" t="s">
         <v>2</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
-        <v>2217011165</v>
+        <v>2217011162</v>
       </c>
       <c r="B542" t="s">
         <v>2</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
-        <v>2217011166</v>
+        <v>2217011163</v>
       </c>
       <c r="B543" t="s">
         <v>2</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
-        <v>2217011167</v>
+        <v>2217011164</v>
       </c>
       <c r="B544" t="s">
         <v>2</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
-        <v>2217011168</v>
+        <v>2217011165</v>
       </c>
       <c r="B545" t="s">
         <v>2</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
-        <v>2217011169</v>
+        <v>2217011166</v>
       </c>
       <c r="B546" t="s">
         <v>2</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
-        <v>2217011170</v>
+        <v>2217011167</v>
       </c>
       <c r="B547" t="s">
         <v>2</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
-        <v>2217011171</v>
+        <v>2217011168</v>
       </c>
       <c r="B548" t="s">
         <v>2</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
-        <v>2217011172</v>
+        <v>2217011169</v>
       </c>
       <c r="B549" t="s">
         <v>2</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
-        <v>2217011173</v>
+        <v>2217011170</v>
       </c>
       <c r="B550" t="s">
         <v>2</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
-        <v>2217011174</v>
+        <v>2217011171</v>
       </c>
       <c r="B551" t="s">
         <v>2</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
-        <v>2217011175</v>
+        <v>2217011172</v>
       </c>
       <c r="B552" t="s">
         <v>2</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
-        <v>2217011176</v>
+        <v>2217011173</v>
       </c>
       <c r="B553" t="s">
         <v>2</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
-        <v>2217011177</v>
+        <v>2217011174</v>
       </c>
       <c r="B554" t="s">
         <v>2</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
-        <v>2217011178</v>
+        <v>2217011175</v>
       </c>
       <c r="B555" t="s">
         <v>2</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
-        <v>2217011179</v>
+        <v>2217011176</v>
       </c>
       <c r="B556" t="s">
         <v>2</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
-        <v>2217011180</v>
+        <v>2217011177</v>
       </c>
       <c r="B557" t="s">
         <v>2</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
-        <v>2257011001</v>
+        <v>2217011178</v>
       </c>
       <c r="B558" t="s">
         <v>2</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
-        <v>2257011002</v>
+        <v>2217011179</v>
       </c>
       <c r="B559" t="s">
         <v>2</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
-        <v>2257011003</v>
+        <v>2217011180</v>
       </c>
       <c r="B560" t="s">
         <v>2</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
-        <v>2257011004</v>
+        <v>2257011001</v>
       </c>
       <c r="B561" t="s">
         <v>2</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
-        <v>2257011005</v>
+        <v>2257011002</v>
       </c>
       <c r="B562" t="s">
         <v>2</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
-        <v>2257011006</v>
+        <v>2257011003</v>
       </c>
       <c r="B563" t="s">
         <v>2</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
-        <v>2257011007</v>
+        <v>2257011004</v>
       </c>
       <c r="B564" t="s">
         <v>2</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
-        <v>2257011008</v>
+        <v>2257011005</v>
       </c>
       <c r="B565" t="s">
         <v>2</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
-        <v>2257011009</v>
+        <v>2257011006</v>
       </c>
       <c r="B566" t="s">
         <v>2</v>
@@ -4944,9 +4944,33 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
+        <v>2257011007</v>
+      </c>
+      <c r="B567" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>2257011008</v>
+      </c>
+      <c r="B568" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>2257011009</v>
+      </c>
+      <c r="B569" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
         <v>2267011001</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B570" t="s">
         <v>2</v>
       </c>
     </row>

--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\cpdc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECD18CE-6FEE-4B13-9A1D-4D59C917307A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460BD3D8-6998-4B3F-B8EA-EF80BD356E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4DE382B-71FB-44F2-9AD1-C07EE2A9A4AE}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:B570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
